--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.262426</v>
+      </c>
+      <c r="H2">
+        <v>0.7872779999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.2164351829578579</v>
+      </c>
+      <c r="J2">
+        <v>0.2164351829578578</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.092559</v>
-      </c>
-      <c r="H2">
-        <v>0.277677</v>
-      </c>
-      <c r="I2">
-        <v>0.07709384600221278</v>
-      </c>
-      <c r="J2">
-        <v>0.07709384600221279</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>1.649183666666667</v>
+        <v>0.2972546666666667</v>
       </c>
       <c r="N2">
-        <v>4.947551000000001</v>
+        <v>0.891764</v>
       </c>
       <c r="O2">
-        <v>0.1132249678768229</v>
+        <v>0.02381895177797704</v>
       </c>
       <c r="P2">
-        <v>0.113224967876823</v>
+        <v>0.02381895177797704</v>
       </c>
       <c r="Q2">
-        <v>0.152646791003</v>
+        <v>0.07800735315466667</v>
       </c>
       <c r="R2">
-        <v>1.373821119027</v>
+        <v>0.7020661783919999</v>
       </c>
       <c r="S2">
-        <v>0.008728948237101276</v>
+        <v>0.005155259185930855</v>
       </c>
       <c r="T2">
-        <v>0.00872894823710128</v>
+        <v>0.005155259185930854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.092559</v>
+        <v>0.262426</v>
       </c>
       <c r="H3">
-        <v>0.277677</v>
+        <v>0.7872779999999999</v>
       </c>
       <c r="I3">
-        <v>0.07709384600221278</v>
+        <v>0.2164351829578579</v>
       </c>
       <c r="J3">
-        <v>0.07709384600221279</v>
+        <v>0.2164351829578578</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.252013</v>
       </c>
       <c r="O3">
-        <v>0.6694338739019379</v>
+        <v>0.7813191461594744</v>
       </c>
       <c r="P3">
-        <v>0.669433873901938</v>
+        <v>0.7813191461594745</v>
       </c>
       <c r="Q3">
-        <v>0.9025123570890001</v>
+        <v>2.558829587846</v>
       </c>
       <c r="R3">
-        <v>8.122611213801001</v>
+        <v>23.029466290614</v>
       </c>
       <c r="S3">
-        <v>0.05160923198326073</v>
+        <v>0.1691049523475031</v>
       </c>
       <c r="T3">
-        <v>0.05160923198326074</v>
+        <v>0.1691049523475031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.092559</v>
+        <v>0.262426</v>
       </c>
       <c r="H4">
-        <v>0.277677</v>
+        <v>0.7872779999999999</v>
       </c>
       <c r="I4">
-        <v>0.07709384600221278</v>
+        <v>0.2164351829578579</v>
       </c>
       <c r="J4">
-        <v>0.07709384600221279</v>
+        <v>0.2164351829578578</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.165693000000001</v>
+        <v>2.431828666666667</v>
       </c>
       <c r="N4">
-        <v>9.497079000000001</v>
+        <v>7.295485999999999</v>
       </c>
       <c r="O4">
-        <v>0.2173411582212391</v>
+        <v>0.1948619020625486</v>
       </c>
       <c r="P4">
-        <v>0.2173411582212391</v>
+        <v>0.1948619020625486</v>
       </c>
       <c r="Q4">
-        <v>0.293013378387</v>
+        <v>0.6381750696786667</v>
       </c>
       <c r="R4">
-        <v>2.637120405483</v>
+        <v>5.743575627107999</v>
       </c>
       <c r="S4">
-        <v>0.01675566578185077</v>
+        <v>0.04217497142442389</v>
       </c>
       <c r="T4">
-        <v>0.01675566578185077</v>
+        <v>0.04217497142442388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>1.292475</v>
       </c>
       <c r="I5">
-        <v>0.3588409144859314</v>
+        <v>0.3553218343373718</v>
       </c>
       <c r="J5">
-        <v>0.3588409144859314</v>
+        <v>0.3553218343373717</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.649183666666667</v>
+        <v>0.2972546666666667</v>
       </c>
       <c r="N5">
-        <v>4.947551000000001</v>
+        <v>0.891764</v>
       </c>
       <c r="O5">
-        <v>0.1132249678768229</v>
+        <v>0.02381895177797704</v>
       </c>
       <c r="P5">
-        <v>0.113224967876823</v>
+        <v>0.02381895177797704</v>
       </c>
       <c r="Q5">
-        <v>0.7105095531916668</v>
+        <v>0.1280647417666667</v>
       </c>
       <c r="R5">
-        <v>6.394585978725001</v>
+        <v>1.1525826759</v>
       </c>
       <c r="S5">
-        <v>0.04062975101555934</v>
+        <v>0.008463393637744204</v>
       </c>
       <c r="T5">
-        <v>0.04062975101555936</v>
+        <v>0.008463393637744203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.292475</v>
       </c>
       <c r="I6">
-        <v>0.3588409144859314</v>
+        <v>0.3553218343373718</v>
       </c>
       <c r="J6">
-        <v>0.3588409144859314</v>
+        <v>0.3553218343373717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>29.252013</v>
       </c>
       <c r="O6">
-        <v>0.6694338739019379</v>
+        <v>0.7813191461594744</v>
       </c>
       <c r="P6">
-        <v>0.669433873901938</v>
+        <v>0.7813191461594745</v>
       </c>
       <c r="Q6">
         <v>4.200832833575</v>
@@ -821,10 +821,10 @@
         <v>37.807495502175</v>
       </c>
       <c r="S6">
-        <v>0.240220263498831</v>
+        <v>0.2776197522162935</v>
       </c>
       <c r="T6">
-        <v>0.2402202634988311</v>
+        <v>0.2776197522162935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.292475</v>
       </c>
       <c r="I7">
-        <v>0.3588409144859314</v>
+        <v>0.3553218343373718</v>
       </c>
       <c r="J7">
-        <v>0.3588409144859314</v>
+        <v>0.3553218343373717</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.165693000000001</v>
+        <v>2.431828666666667</v>
       </c>
       <c r="N7">
-        <v>9.497079000000001</v>
+        <v>7.295485999999999</v>
       </c>
       <c r="O7">
-        <v>0.2173411582212391</v>
+        <v>0.1948619020625486</v>
       </c>
       <c r="P7">
-        <v>0.2173411582212391</v>
+        <v>0.1948619020625486</v>
       </c>
       <c r="Q7">
-        <v>1.363859686725</v>
+        <v>1.047692585316667</v>
       </c>
       <c r="R7">
-        <v>12.274737180525</v>
+        <v>9.42923326785</v>
       </c>
       <c r="S7">
-        <v>0.07799089997154093</v>
+        <v>0.06923868848333406</v>
       </c>
       <c r="T7">
-        <v>0.07799089997154096</v>
+        <v>0.06923868848333405</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2904703333333333</v>
+        <v>0.1998913333333333</v>
       </c>
       <c r="H8">
-        <v>0.8714109999999999</v>
+        <v>0.599674</v>
       </c>
       <c r="I8">
-        <v>0.2419373064338574</v>
+        <v>0.1648598740280695</v>
       </c>
       <c r="J8">
-        <v>0.2419373064338575</v>
+        <v>0.1648598740280695</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.649183666666667</v>
+        <v>0.2972546666666667</v>
       </c>
       <c r="N8">
-        <v>4.947551000000001</v>
+        <v>0.891764</v>
       </c>
       <c r="O8">
-        <v>0.1132249678768229</v>
+        <v>0.02381895177797704</v>
       </c>
       <c r="P8">
-        <v>0.113224967876823</v>
+        <v>0.02381895177797704</v>
       </c>
       <c r="Q8">
-        <v>0.4790389293845556</v>
+        <v>0.05941863165955556</v>
       </c>
       <c r="R8">
-        <v>4.311350364461</v>
+        <v>0.534767684936</v>
       </c>
       <c r="S8">
-        <v>0.02739334374917857</v>
+        <v>0.003926789389597955</v>
       </c>
       <c r="T8">
-        <v>0.02739334374917858</v>
+        <v>0.003926789389597956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2904703333333333</v>
+        <v>0.1998913333333333</v>
       </c>
       <c r="H9">
-        <v>0.8714109999999999</v>
+        <v>0.599674</v>
       </c>
       <c r="I9">
-        <v>0.2419373064338574</v>
+        <v>0.1648598740280695</v>
       </c>
       <c r="J9">
-        <v>0.2419373064338575</v>
+        <v>0.1648598740280695</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>29.252013</v>
       </c>
       <c r="O9">
-        <v>0.6694338739019379</v>
+        <v>0.7813191461594744</v>
       </c>
       <c r="P9">
-        <v>0.669433873901938</v>
+        <v>0.7813191461594745</v>
       </c>
       <c r="Q9">
-        <v>2.832280655593667</v>
+        <v>1.949074627084667</v>
       </c>
       <c r="R9">
-        <v>25.490525900343</v>
+        <v>17.541671643762</v>
       </c>
       <c r="S9">
-        <v>0.1619610282874174</v>
+        <v>0.1288081760115697</v>
       </c>
       <c r="T9">
-        <v>0.1619610282874175</v>
+        <v>0.1288081760115697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2904703333333333</v>
+        <v>0.1998913333333333</v>
       </c>
       <c r="H10">
-        <v>0.8714109999999999</v>
+        <v>0.599674</v>
       </c>
       <c r="I10">
-        <v>0.2419373064338574</v>
+        <v>0.1648598740280695</v>
       </c>
       <c r="J10">
-        <v>0.2419373064338575</v>
+        <v>0.1648598740280695</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.165693000000001</v>
+        <v>2.431828666666667</v>
       </c>
       <c r="N10">
-        <v>9.497079000000001</v>
+        <v>7.295485999999999</v>
       </c>
       <c r="O10">
-        <v>0.2173411582212391</v>
+        <v>0.1948619020625486</v>
       </c>
       <c r="P10">
-        <v>0.2173411582212391</v>
+        <v>0.1948619020625486</v>
       </c>
       <c r="Q10">
-        <v>0.9195399009410001</v>
+        <v>0.4861014746182222</v>
       </c>
       <c r="R10">
-        <v>8.275859108469</v>
+        <v>4.374913271564</v>
       </c>
       <c r="S10">
-        <v>0.05258293439726142</v>
+        <v>0.03212490862690177</v>
       </c>
       <c r="T10">
-        <v>0.05258293439726143</v>
+        <v>0.03212490862690177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.31935</v>
+      </c>
+      <c r="H11">
+        <v>0.95805</v>
+      </c>
+      <c r="I11">
+        <v>0.2633831086767009</v>
+      </c>
+      <c r="J11">
+        <v>0.2633831086767008</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.3867473333333333</v>
-      </c>
-      <c r="H11">
-        <v>1.160242</v>
-      </c>
-      <c r="I11">
-        <v>0.3221279330779984</v>
-      </c>
-      <c r="J11">
-        <v>0.3221279330779984</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M11">
-        <v>1.649183666666667</v>
+        <v>0.2972546666666667</v>
       </c>
       <c r="N11">
-        <v>4.947551000000001</v>
+        <v>0.891764</v>
       </c>
       <c r="O11">
-        <v>0.1132249678768229</v>
+        <v>0.02381895177797704</v>
       </c>
       <c r="P11">
-        <v>0.113224967876823</v>
+        <v>0.02381895177797704</v>
       </c>
       <c r="Q11">
-        <v>0.6378173852602222</v>
+        <v>0.09492827779999999</v>
       </c>
       <c r="R11">
-        <v>5.740356467342001</v>
+        <v>0.8543545001999999</v>
       </c>
       <c r="S11">
-        <v>0.03647292487498373</v>
+        <v>0.006273509564704024</v>
       </c>
       <c r="T11">
-        <v>0.03647292487498375</v>
+        <v>0.006273509564704024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3867473333333333</v>
+        <v>0.31935</v>
       </c>
       <c r="H12">
-        <v>1.160242</v>
+        <v>0.95805</v>
       </c>
       <c r="I12">
-        <v>0.3221279330779984</v>
+        <v>0.2633831086767009</v>
       </c>
       <c r="J12">
-        <v>0.3221279330779984</v>
+        <v>0.2633831086767008</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>29.252013</v>
       </c>
       <c r="O12">
-        <v>0.6694338739019379</v>
+        <v>0.7813191461594744</v>
       </c>
       <c r="P12">
-        <v>0.669433873901938</v>
+        <v>0.7813191461594745</v>
       </c>
       <c r="Q12">
-        <v>3.771046007460667</v>
+        <v>3.11387678385</v>
       </c>
       <c r="R12">
-        <v>33.939414067146</v>
+        <v>28.02489105465</v>
       </c>
       <c r="S12">
-        <v>0.2156433501324286</v>
+        <v>0.205786265584108</v>
       </c>
       <c r="T12">
-        <v>0.2156433501324287</v>
+        <v>0.205786265584108</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3867473333333333</v>
+        <v>0.31935</v>
       </c>
       <c r="H13">
-        <v>1.160242</v>
+        <v>0.95805</v>
       </c>
       <c r="I13">
-        <v>0.3221279330779984</v>
+        <v>0.2633831086767009</v>
       </c>
       <c r="J13">
-        <v>0.3221279330779984</v>
+        <v>0.2633831086767008</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.165693000000001</v>
+        <v>2.431828666666667</v>
       </c>
       <c r="N13">
-        <v>9.497079000000001</v>
+        <v>7.295485999999999</v>
       </c>
       <c r="O13">
-        <v>0.2173411582212391</v>
+        <v>0.1948619020625486</v>
       </c>
       <c r="P13">
-        <v>0.2173411582212391</v>
+        <v>0.1948619020625486</v>
       </c>
       <c r="Q13">
-        <v>1.224323325902</v>
+        <v>0.7766044846999999</v>
       </c>
       <c r="R13">
-        <v>11.018909933118</v>
+        <v>6.989440362299999</v>
       </c>
       <c r="S13">
-        <v>0.07001165807058596</v>
+        <v>0.05132333352788888</v>
       </c>
       <c r="T13">
-        <v>0.07001165807058599</v>
+        <v>0.05132333352788888</v>
       </c>
     </row>
   </sheetData>
